--- a/designs_worth_keeping.xlsx
+++ b/designs_worth_keeping.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18312\Desktop\214A\EE214A_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E1E7C54-EE9F-4525-9FFE-27C5C8AF0A8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD38B42-9685-4435-92B3-4E84FBDEAB4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1260" windowWidth="17970" windowHeight="14940" xr2:uid="{297FC741-5525-4368-AF48-24068D52B2F5}"/>
+    <workbookView xWindow="11850" yWindow="405" windowWidth="15135" windowHeight="14940" activeTab="2" xr2:uid="{297FC741-5525-4368-AF48-24068D52B2F5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="64MHz" sheetId="1" r:id="rId1"/>
+    <sheet name="65MHz" sheetId="2" r:id="rId2"/>
+    <sheet name="final" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,9 +33,96 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>0.40    0.25    0.30    0.80    0.80   20.00    0.50    0.40    0.20   33.33   50.00 1261.00   67.70</t>
+  </si>
+  <si>
+    <t>design: #1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              Vov_1   Vov_2   Vov_3   Vov_N   Vov_P   R_LCG    V1   ratio_1 ratio_2    p_total Ru      Rd     FOM     f3dB [MHz]</t>
+  </si>
+  <si>
+    <t>design:    [   0.40    0.30    0.25    0.90    0.90   30.00    0.40    0.49    0.16    1.40   51.72   71.43 1196.00   64.29]</t>
+  </si>
+  <si>
+    <t>mosfets:      M1L     M1      M1B     M2L     M2      M2B     M3      M3B     Mi1     Mi2     Mi3</t>
+  </si>
+  <si>
+    <t>Vov [V]    [   0.90    0.40    0.90    0.67    0.30    0.90    0.25    0.90    0.90    0.90    0.90]</t>
+  </si>
+  <si>
+    <t>Id [uA]    [  27.64   27.64   27.64   16.44   16.44   16.44   55.91   55.91   10.00   10.00   10.00]</t>
+  </si>
+  <si>
+    <t>type       [   6.00    1.00    2.00    4.00    1.00    2.00    1.00    2.00    2.00    2.00    6.00]</t>
+  </si>
+  <si>
+    <t>WL         [   2.73    6.91    1.37    1.47    7.31    0.81   35.78    2.76    0.49    0.49    0.99]</t>
+  </si>
+  <si>
+    <t>W [um]     [   5.46    6.91    2.73    5.86    7.31    1.62   35.78    5.52    0.99    0.99    1.98]</t>
+  </si>
+  <si>
+    <t>L[um]      [   2.00    1.00    2.00    4.00    1.00    2.00    1.00    2.00    2.00    2.00    2.00]</t>
+  </si>
+  <si>
+    <t>gm [mA/V]  [   0.06    0.14    0.06    0.05    0.11    0.04    0.45    0.12    0.02    0.02    0.02]</t>
+  </si>
+  <si>
+    <t>gmp [mA/V] [   0.07    0.17    0.07    0.06    0.13    0.04    0.54    0.15    0.03    0.03    0.03]</t>
+  </si>
+  <si>
+    <t>ro [kohms] [ 361.73  361.73  361.73  608.11  608.11  608.11  178.86  178.86 1000.00 1000.00 1000.00]</t>
+  </si>
+  <si>
+    <t>cgs [fF]   [  19.48   14.05    9.74   38.90   14.86    5.79   72.75   19.70    3.52    3.52    7.05]</t>
+  </si>
+  <si>
+    <t>cgd [fF]   [   2.78    3.49    1.39    2.97    3.69    0.83   18.07    2.81    0.50    0.50    1.01]</t>
+  </si>
+  <si>
+    <t>csb [fF]   [   8.93    8.53    5.18    7.69    8.85    4.30   31.63    7.42    3.79    3.79    4.57]</t>
+  </si>
+  <si>
+    <t>cdb [fF]   [   6.00    6.01    3.70    6.58    6.23    3.09   21.98    5.25    2.74    2.74    3.15]</t>
+  </si>
+  <si>
+    <t>design:    [   0.43    0.30    0.24    1.00    1.20   29.20    0.40    0.63    0.18    1.40   50.36   69.55 1237.00   67.54]</t>
+  </si>
+  <si>
+    <t>Vov [V]    [   1.20    0.43    1.00    0.70    0.30    1.00    0.24    1.00    1.00    1.00    1.20]</t>
+  </si>
+  <si>
+    <t>Id [uA]    [  31.58   31.58   31.58   17.61   17.61   17.61   49.86   49.86   10.00   10.00   10.00]</t>
+  </si>
+  <si>
+    <t>WL         [   1.75    6.83    1.26    1.44    7.83    0.70   34.63    1.99    0.40    0.40    0.56]</t>
+  </si>
+  <si>
+    <t>W [um]     [   3.51    6.83    2.53    5.77    7.83    1.41   34.63    3.99    0.80    0.80    1.11]</t>
+  </si>
+  <si>
+    <t>gm [mA/V]  [   0.05    0.15    0.06    0.05    0.12    0.04    0.42    0.10    0.02    0.02    0.02]</t>
+  </si>
+  <si>
+    <t>gmp [mA/V] [   0.06    0.18    0.08    0.06    0.14    0.04    0.50    0.12    0.02    0.02    0.02]</t>
+  </si>
+  <si>
+    <t>ro [kohms] [ 316.65  316.65  316.65  567.87  567.87  567.87  200.55  200.55 1000.00 1000.00 1000.00]</t>
+  </si>
+  <si>
+    <t>cgs [fF]   [  12.52   13.89    9.01   38.28   15.91    5.03   70.40   14.23    2.85    2.85    3.96]</t>
+  </si>
+  <si>
+    <t>cgd [fF]   [   1.79    3.45    1.29    2.92    3.95    0.72   17.49    2.03    0.41    0.41    0.57]</t>
+  </si>
+  <si>
+    <t>csb [fF]   [   6.49    8.47    5.02    7.62    9.26    4.13   30.70    6.19    3.64    3.64    3.49]</t>
+  </si>
+  <si>
+    <t>cdb [fF]   [   4.40    5.97    3.59    6.52    6.52    2.97   21.34    4.40    2.64    2.64    2.45]</t>
   </si>
 </sst>
 </file>
@@ -385,20 +474,219 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3533527-F2A5-4403-AF5F-CC62900D8A1B}">
-  <dimension ref="B2"/>
+  <dimension ref="A2:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DABE3ADD-A587-4696-A164-97789D159E97}">
+  <dimension ref="A1:A17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5615D111-1A49-4E82-A7FC-427B74854AA1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>